--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Desktop\INSOFEE\INTERNSHIP\b29-interns-data-EsskaYPraveen-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -365,9 +365,6 @@
     <t>Tuning parameters</t>
   </si>
   <si>
-    <t>Pruning</t>
-  </si>
-  <si>
     <t>Insights / Other Inputs</t>
   </si>
   <si>
@@ -449,13 +446,67 @@
     <t>Red,Green,Blue</t>
   </si>
   <si>
-    <t>Method = Binomial</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Method = Binomial,Linear</t>
   </si>
   <si>
     <t>https://github.com/EsskaYPraveen/Praveen_B29</t>
+  </si>
+  <si>
+    <t>0.36,0.48,0.06,0.04,0.016</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t>V1:V13</t>
+  </si>
+  <si>
+    <t>V13:V55</t>
+  </si>
+  <si>
+    <t>No MISSING Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1 to V13 </t>
+  </si>
+  <si>
+    <t>Scalimg -Standardized</t>
+  </si>
+  <si>
+    <t>Method = Multinomial</t>
+  </si>
+  <si>
+    <t>Method=rpart,cp=0.02,minsplit=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method = C50, CV=10 # of cases per node =20 </t>
+  </si>
+  <si>
+    <t>Method=rpart,cp=0.01,minsplit=10</t>
+  </si>
+  <si>
+    <t>Method = linear</t>
+  </si>
+  <si>
+    <t>C=100,gamma=0.01</t>
+  </si>
+  <si>
+    <t>C=10,gamma=0.001</t>
+  </si>
+  <si>
+    <t>Method =RBF</t>
+  </si>
+  <si>
+    <t>Method = tanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntrees = 500; mtry =5 </t>
   </si>
 </sst>
 </file>
@@ -683,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -746,6 +797,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,13 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1079,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1108,8 +1160,8 @@
       <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>143</v>
+      <c r="C3" s="53" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1228,7 +1280,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1268,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1282,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1372,6 +1424,9 @@
       <c r="B16" s="22">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -1380,6 +1435,9 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -1388,13 +1446,19 @@
       <c r="B18" s="22">
         <v>0</v>
       </c>
+      <c r="C18" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,13 +1468,19 @@
       <c r="B20" s="22">
         <v>0.88888888888888884</v>
       </c>
+      <c r="C20" s="48" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1418,7 +1488,10 @@
         <v>39</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,7 +1499,10 @@
         <v>40</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1467,9 +1543,9 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="55">
+        <v>136</v>
+      </c>
+      <c r="B26" s="51">
         <v>125.1</v>
       </c>
       <c r="C26" s="11">
@@ -1491,9 +1567,9 @@
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="56">
+        <v>137</v>
+      </c>
+      <c r="B27" s="52">
         <v>132.15</v>
       </c>
       <c r="C27" s="11">
@@ -1515,9 +1591,9 @@
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="56">
+        <v>138</v>
+      </c>
+      <c r="B28" s="52">
         <v>123</v>
       </c>
       <c r="C28" s="11">
@@ -1565,7 +1641,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1573,7 +1649,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1581,7 +1657,7 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1608,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1668,7 +1744,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>34</v>
@@ -1676,7 +1752,9 @@
       <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
@@ -1692,7 +1770,9 @@
       <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="F6" s="10" t="s">
         <v>38</v>
       </c>
@@ -1738,15 +1818,9 @@
       <c r="C10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
@@ -1756,11 +1830,9 @@
         <v>55</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>55</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
@@ -1769,12 +1841,8 @@
       <c r="C12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="E12" s="26"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
@@ -1782,9 +1850,7 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="E13" s="27" t="s">
-        <v>58</v>
-      </c>
+      <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
     </row>
@@ -1899,7 +1965,12 @@
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="C23" s="33"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>150</v>
+      </c>
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2100,15 +2171,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -2144,7 +2215,10 @@
         <v>88</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>141</v>
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2154,13 +2228,19 @@
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2178,6 +2258,9 @@
       <c r="B8" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="C8">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
@@ -2203,15 +2286,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -2313,7 +2396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2330,14 +2415,14 @@
       <c r="C2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="40" t="s">
         <v>83</v>
       </c>
@@ -2394,12 +2479,13 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="33"/>
+      <c r="J7">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
@@ -2407,15 +2493,27 @@
         <v>90</v>
       </c>
       <c r="C8" s="10"/>
+      <c r="D8" s="48" t="s">
+        <v>152</v>
+      </c>
       <c r="I8" s="33"/>
+      <c r="J8">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="50"/>
       <c r="I9" s="33"/>
+      <c r="J9">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
@@ -2431,25 +2529,44 @@
         <v>92</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="I11" s="33"/>
+      <c r="J11">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>156</v>
+      </c>
       <c r="I12" s="33"/>
+      <c r="J12">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>156</v>
+      </c>
       <c r="I13" s="33"/>
+      <c r="J13">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
@@ -2459,6 +2576,9 @@
       <c r="D14" s="26" t="s">
         <v>94</v>
       </c>
+      <c r="E14" s="48" t="s">
+        <v>157</v>
+      </c>
       <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2477,17 +2597,20 @@
       <c r="D16" s="18"/>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="41" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>95</v>
@@ -2495,7 +2618,7 @@
       <c r="D18" s="18"/>
       <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="41" t="s">
         <v>95</v>
@@ -2503,7 +2626,7 @@
       <c r="D19" s="18"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>97</v>
@@ -2513,7 +2636,7 @@
       </c>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>97</v>
@@ -2521,7 +2644,7 @@
       <c r="D21" s="18"/>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="41" t="s">
         <v>97</v>
@@ -2529,7 +2652,7 @@
       <c r="D22" s="18"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="41" t="s">
         <v>99</v>
@@ -2537,7 +2660,7 @@
       <c r="D23" s="18"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="41" t="s">
         <v>99</v>
@@ -2545,7 +2668,7 @@
       <c r="D24" s="18"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41"/>
       <c r="B25" s="41" t="s">
         <v>99</v>
@@ -2553,7 +2676,7 @@
       <c r="D25" s="18"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
       <c r="B26" s="41" t="s">
         <v>100</v>
@@ -2561,7 +2684,7 @@
       <c r="D26" s="18"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="41" t="s">
         <v>100</v>
@@ -2569,7 +2692,7 @@
       <c r="D27" s="18"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="41" t="s">
         <v>100</v>
@@ -2577,7 +2700,7 @@
       <c r="D28" s="18"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="41" t="s">
         <v>101</v>
@@ -2585,7 +2708,7 @@
       <c r="D29" s="18"/>
       <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="41" t="s">
         <v>101</v>
@@ -2593,7 +2716,7 @@
       <c r="D30" s="18"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>101</v>
@@ -2628,82 +2751,82 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
